--- a/public/templates/Template_Scheuerle.xlsx
+++ b/public/templates/Template_Scheuerle.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xlg/Development/Reqmasters/reqmastes-spider-nextjs/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A84D72-D0F0-2E45-A1B9-965BE3B27D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D115DF2-1DEE-A349-A0CF-99AD1211A8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="4020" windowWidth="34080" windowHeight="21860" xr2:uid="{867E9DE4-383A-C342-B47C-E4C5D8F449D4}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{867E9DE4-383A-C342-B47C-E4C5D8F449D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bericht" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>Kunde:</t>
   </si>
   <si>
-    <t>Scheuerle Kamag</t>
-  </si>
-  <si>
     <t>Zeitraum:</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>91058 Erlangen</t>
+  </si>
+  <si>
+    <t>Scheuerle</t>
   </si>
 </sst>
 </file>
@@ -386,64 +386,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF428BCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF428BCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF428BCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF428BCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -461,15 +404,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1973262</xdr:colOff>
+      <xdr:colOff>5199062</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4373563</xdr:colOff>
+      <xdr:colOff>7599363</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130525</xdr:rowOff>
+      <xdr:rowOff>206725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5021262" y="101600"/>
+          <a:off x="9085262" y="177800"/>
           <a:ext cx="2400301" cy="1044925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -830,13 +773,16 @@
   <dimension ref="B3:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -862,27 +808,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -899,11 +845,11 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B8+1),B8+1,""),"")</f>
+        <f t="shared" ref="B9:B38" si="0">IFERROR(IF(MONTH($D$8)=MONTH(B8+1),B8+1,""),"")</f>
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C8+1),C8+1,""),"")</f>
+        <f t="shared" ref="C9:C38" si="1">IFERROR(IF(MONTH($D$8)=MONTH(C8+1),C8+1,""),"")</f>
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
@@ -911,11 +857,11 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B9+1),B9+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C9+1),C9+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D10" s="8"/>
@@ -923,11 +869,11 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B10+1),B10+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C10+1),C10+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D11" s="8"/>
@@ -935,11 +881,11 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B11+1),B11+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C11+1),C11+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D12" s="8"/>
@@ -947,11 +893,11 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B12+1),B12+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C13" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C12+1),C12+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
@@ -959,11 +905,11 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B13+1),B13+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C14" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C13+1),C13+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D14" s="8"/>
@@ -971,11 +917,11 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B14+1),B14+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C15" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C14+1),C14+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D15" s="8"/>
@@ -983,11 +929,11 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B15+1),B15+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C16" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C15+1),C15+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D16" s="8"/>
@@ -995,11 +941,11 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B16+1),B16+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C16+1),C16+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D17" s="8"/>
@@ -1007,11 +953,11 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B17+1),B17+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C17+1),C17+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D18" s="8"/>
@@ -1019,11 +965,11 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B18+1),B18+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C19" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C18+1),C18+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D19" s="8"/>
@@ -1031,11 +977,11 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B19+1),B19+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C19+1),C19+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D20" s="8"/>
@@ -1043,11 +989,11 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B20+1),B20+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C21" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C20+1),C20+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D21" s="8"/>
@@ -1055,11 +1001,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B21+1),B21+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C22" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C21+1),C21+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D22" s="8"/>
@@ -1067,11 +1013,11 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B22+1),B22+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C22+1),C22+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D23" s="8"/>
@@ -1079,11 +1025,11 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B23+1),B23+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C24" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C23+1),C23+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D24" s="8"/>
@@ -1091,11 +1037,11 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B24+1),B24+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C25" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C24+1),C24+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D25" s="8"/>
@@ -1103,11 +1049,11 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B25+1),B25+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C26" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C25+1),C25+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D26" s="8"/>
@@ -1115,11 +1061,11 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B26+1),B26+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C27" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C26+1),C26+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D27" s="8"/>
@@ -1127,11 +1073,11 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B27+1),B27+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C28" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C27+1),C27+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D28" s="8"/>
@@ -1139,11 +1085,11 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B28+1),B28+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C29" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C28+1),C28+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D29" s="8"/>
@@ -1151,11 +1097,11 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B29+1),B29+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C29+1),C29+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D30" s="8"/>
@@ -1163,11 +1109,11 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B30+1),B30+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C31" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C30+1),C30+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D31" s="8"/>
@@ -1175,11 +1121,11 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B31+1),B31+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C32" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C31+1),C31+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D32" s="8"/>
@@ -1187,11 +1133,11 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B32+1),B32+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C33" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C32+1),C32+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D33" s="8"/>
@@ -1199,11 +1145,11 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B33+1),B33+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C34" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C33+1),C33+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D34" s="8"/>
@@ -1211,11 +1157,11 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B34+1),B34+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C35" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C34+1),C34+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D35" s="8"/>
@@ -1223,11 +1169,11 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B35+1),B35+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C36" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C35+1),C35+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D36" s="8"/>
@@ -1235,11 +1181,11 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B36+1),B36+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C37" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C36+1),C36+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D37" s="8"/>
@@ -1247,11 +1193,11 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="6">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(B37+1),B37+1,""),"")</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C38" s="7">
-        <f>IFERROR(IF(MONTH($D$8)=MONTH(C37+1),C37+1,""),"")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D38" s="7"/>
@@ -1259,7 +1205,7 @@
     </row>
     <row r="39" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12">
@@ -1270,14 +1216,14 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,20 +1231,20 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
